--- a/ScheduleExcel.xlsx
+++ b/ScheduleExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -601,6 +601,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -648,18 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1073,7 +1073,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1093,18 +1093,18 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1112,66 +1112,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1198,12 +1198,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="7">
@@ -1403,11 +1403,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="7">
@@ -1424,11 +1425,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="7">
@@ -1449,7 +1451,7 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="7">
@@ -1459,8 +1461,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1470,7 +1471,7 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="7">
@@ -1480,8 +1481,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7">
@@ -1501,8 +1501,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -1512,7 +1511,7 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="7">
@@ -1522,8 +1521,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1533,7 +1531,7 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7">
@@ -1543,8 +1541,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -1554,7 +1551,7 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="7">
@@ -1564,8 +1561,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -1575,7 +1571,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="7">
@@ -1585,8 +1581,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -1596,7 +1591,7 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="9">
@@ -1606,18 +1601,18 @@
         <v>36</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="7">
@@ -1627,8 +1622,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -1638,7 +1632,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="7">
@@ -1648,18 +1642,18 @@
         <v>12</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="41">
-        <v>0</v>
+      <c r="G17" s="25">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="7">
@@ -1669,8 +1663,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18" si="1">C18</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -1680,7 +1673,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="7">
@@ -1690,18 +1683,18 @@
         <v>36</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" ref="E19" si="2">C19</f>
         <v>1</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7">
@@ -1711,8 +1704,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" ref="E20" si="3">C20</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -1722,7 +1714,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="7">
@@ -1732,8 +1724,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" ref="E21" si="4">C21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1743,7 +1734,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7">
@@ -1753,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22" si="5">C22</f>
+        <f t="shared" ref="E22" si="1">C22</f>
         <v>0</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="25">
         <v>0</v>
       </c>
     </row>
